--- a/CUMCM2022支撑材料/excel/result/3/pred_result.xlsx
+++ b/CUMCM2022支撑材料/excel/result/3/pred_result.xlsx
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.7421404682281595</v>
+        <v>0.7457512507966813</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2578595317718405</v>
+        <v>0.2542487492033187</v>
       </c>
     </row>
     <row r="3">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>0.1059452752662083</v>
+        <v>0.1074959097615905</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8940547247337918</v>
+        <v>0.8925040902384096</v>
       </c>
     </row>
     <row r="4">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>0.06119825218325334</v>
+        <v>0.0612102164084858</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9388017478167467</v>
+        <v>0.9387897835915142</v>
       </c>
     </row>
     <row r="5">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>0.05510577756030283</v>
+        <v>0.0552686504002492</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9448942224396972</v>
+        <v>0.9447313495997508</v>
       </c>
     </row>
     <row r="6">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>0.114371574675607</v>
+        <v>0.1156463929558917</v>
       </c>
       <c r="V6" t="n">
-        <v>0.885628425324393</v>
+        <v>0.8843536070441084</v>
       </c>
     </row>
     <row r="7">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>0.8703197538286992</v>
+        <v>0.8724838266435212</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1296802461713009</v>
+        <v>0.1275161733564789</v>
       </c>
     </row>
     <row r="8">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>0.8567855325280719</v>
+        <v>0.8596003863293618</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1432144674719282</v>
+        <v>0.1403996136706382</v>
       </c>
     </row>
     <row r="9">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>0.06354037821073628</v>
+        <v>0.064173552663155</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9364596217892638</v>
+        <v>0.9358264473368451</v>
       </c>
     </row>
   </sheetData>

--- a/CUMCM2022支撑材料/excel/result/3/pred_result.xlsx
+++ b/CUMCM2022支撑材料/excel/result/3/pred_result.xlsx
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.7457512507966813</v>
+        <v>0.742839186133173</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2542487492033187</v>
+        <v>0.257160813866827</v>
       </c>
     </row>
     <row r="3">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>0.1074959097615905</v>
+        <v>0.1055115938701994</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8925040902384096</v>
+        <v>0.8944884061298007</v>
       </c>
     </row>
     <row r="4">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>0.0612102164084858</v>
+        <v>0.06120690194331004</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9387897835915142</v>
+        <v>0.9387930980566901</v>
       </c>
     </row>
     <row r="5">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>0.0552686504002492</v>
+        <v>0.05500336252029796</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9447313495997508</v>
+        <v>0.9449966374797021</v>
       </c>
     </row>
     <row r="6">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>0.1156463929558917</v>
+        <v>0.1139480959347588</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8843536070441084</v>
+        <v>0.8860519040652414</v>
       </c>
     </row>
     <row r="7">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>0.8724838266435212</v>
+        <v>0.8728182484977381</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1275161733564789</v>
+        <v>0.1271817515022618</v>
       </c>
     </row>
     <row r="8">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>0.8596003863293618</v>
+        <v>0.8594168848615682</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1403996136706382</v>
+        <v>0.1405831151384319</v>
       </c>
     </row>
     <row r="9">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>0.064173552663155</v>
+        <v>0.0632371942176472</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9358264473368451</v>
+        <v>0.9367628057823528</v>
       </c>
     </row>
   </sheetData>
